--- a/Product Backlog Grupo-3.xlsx
+++ b/Product Backlog Grupo-3.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="42">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -68,13 +68,20 @@
     <t>Como tomador de decisões públicas,  preciso comparar o desempenho comercial de municípios paulistas com seus vizinhos, para identificar pontos fortes e fracos regionais.</t>
   </si>
   <si>
-    <t>Em Andamento</t>
+    <t>Concluido dia 29/09</t>
   </si>
   <si>
     <t>Como tomador de decisões públicas, desejo identificar mercados emergentes internacionais, para orientar políticas de incentivo às exportações.</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Como tomador de decisões públicas, quero segmentar por </t>
     </r>
     <r>
@@ -106,6 +113,10 @@
     <t>Como tomador de decisões públicas, preciso avaliar o impacto de políticas tarifárias, para entender riscos e oportunidades das mudanças regulatórias.</t>
   </si>
   <si>
+    <t xml:space="preserve">Concluido dia 30/09
+</t>
+  </si>
+  <si>
     <t>Baixa</t>
   </si>
   <si>
@@ -115,6 +126,9 @@
     <t>Como tomador de decisões públicas, quero entender se os municípios concentram exportações em poucos produtos ou se possuem pauta diversificada, para reduzir riscos de dependência.</t>
   </si>
   <si>
+    <t>Em Andamento</t>
+  </si>
+  <si>
     <t>Como tomador de decisões públicas, preciso mapear as principais vias de transporte utilizadas, para avaliar custos e gargalos da infraestrutura.</t>
   </si>
   <si>
@@ -122,6 +136,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Como tomador de decisões públicas, desejo </t>
     </r>
     <r>
@@ -154,6 +175,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Como tomador de decisões públicas, gostaria de acessar um painel</t>
     </r>
     <r>
@@ -216,6 +244,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Como tomador de decisões públicas, gostaria acessar um </t>
     </r>
     <r>
@@ -445,12 +480,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -771,7 +824,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,16 +848,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -813,89 +866,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,6 +972,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1456,7 +1524,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1504,13 +1572,13 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4">
@@ -1524,13 +1592,13 @@
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="4">
@@ -1544,13 +1612,13 @@
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="4">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="4">
@@ -1564,13 +1632,13 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="4">
@@ -1584,14 +1652,14 @@
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="4">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1602,19 +1670,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="46.8" spans="1:6">
@@ -1624,14 +1692,14 @@
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
+      <c r="E9" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -1644,14 +1712,14 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="4">
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
+      <c r="E10" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F10" s="4">
         <v>2</v>
@@ -1664,14 +1732,14 @@
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="4">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -1684,14 +1752,14 @@
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
+      <c r="C12" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="4">
         <v>8</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
+      <c r="E12" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -1702,16 +1770,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>12</v>
+      <c r="E13" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
@@ -1724,14 +1792,14 @@
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
+      <c r="C14" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="D14" s="4">
         <v>6</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>12</v>
+      <c r="E14" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="F14" s="4">
         <v>3</v>
@@ -1744,14 +1812,14 @@
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>24</v>
+      <c r="C15" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="4">
         <v>6</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
+      <c r="E15" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="F15" s="4">
         <v>3</v>
@@ -1764,14 +1832,14 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
+      <c r="C16" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>12</v>
+      <c r="E16" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="4">
         <v>3</v>
@@ -1784,14 +1852,14 @@
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>26</v>
+      <c r="C17" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="D17" s="4">
         <v>6</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>12</v>
+      <c r="E17" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="F17" s="4">
         <v>3</v>
@@ -1804,14 +1872,14 @@
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>27</v>
+      <c r="C18" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="4">
         <v>6</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>12</v>
+      <c r="E18" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="F18" s="4">
         <v>3</v>
@@ -1822,16 +1890,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>12</v>
+      <c r="E19" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="F19" s="4">
         <v>3</v>
@@ -1849,7 +1917,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E12" sqref="E10:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1864,7 +1932,7 @@
   <sheetData>
     <row r="1" ht="33.6" spans="3:4">
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="6"/>
     </row>
@@ -1904,8 +1972,8 @@
       <c r="D3" s="4">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -1919,12 +1987,12 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="4">
@@ -1939,12 +2007,12 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="4">
@@ -1964,14 +2032,14 @@
       <c r="D6" s="4">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="31.2" spans="1:6">
+    <row r="7" ht="46.8" spans="1:6">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1979,33 +2047,33 @@
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="31.2" spans="1:6">
+    <row r="8" ht="46.8" spans="1:6">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -2039,7 +2107,7 @@
   <sheetData>
     <row r="1" ht="25.8" spans="3:3">
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:7">
@@ -2073,13 +2141,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -2093,13 +2161,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
@@ -2113,13 +2181,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="4">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
@@ -2133,13 +2201,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
@@ -2150,16 +2218,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
@@ -2192,7 +2260,7 @@
   <sheetData>
     <row r="1" ht="25.8" spans="3:3">
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:7">
@@ -2226,13 +2294,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4">
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F3" s="4">
         <v>3</v>
@@ -2246,13 +2314,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4">
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4">
         <v>3</v>
@@ -2266,13 +2334,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4">
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
@@ -2286,13 +2354,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4">
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -2306,13 +2374,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
@@ -2323,16 +2391,16 @@
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
